--- a/new.xlsx
+++ b/new.xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>adfads</t>
-  </si>
-  <si>
-    <t>dsfdsafas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>dsafdsa</t>
   </si>
@@ -34,27 +28,6 @@
   </si>
   <si>
     <t>fsad</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>dsaf</t>
-  </si>
-  <si>
-    <t>sda</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>fdf</t>
-  </si>
-  <si>
-    <t>safdf</t>
   </si>
 </sst>
 </file>
@@ -372,71 +345,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="D1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
